--- a/Pertemuan 10-14/Model_Drift1.xlsx
+++ b/Pertemuan 10-14/Model_Drift1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -72,6 +72,117 @@
   </si>
   <si>
     <t xml:space="preserve">ar1, NA, NA, ar4, ar5, ar6, ma1, NA, NA, ma4, ma5, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, ma1, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(3,1,1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(4,1,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, ar3, ar4, ma1, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(5,1,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ma1, ma2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar3, ar4, ar5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, NA, NA, NA, NA, ma2, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, NA, NA, NA, NA, ma1, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(3,1,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ma2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar3, ma1, ma3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar5, ma1, ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar2, ar3, ar4, ma2, ma3, ma4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar2, ar3, ar4, ar6, ma2, ma3, ma4, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar5, ma1, ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, ar3, NA, NA, ma3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(4,1,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, NA, NA, ma2, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ar4, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(5,1,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar2, NA, NA, ar5, ma1, ma2, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIMA(6,1,5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, NA, NA, NA, NA, ar6, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar3, ma1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, NA, NA, NA, NA, NA, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar6, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar2, ar3, ar4, ar5, ma1, ma2, ma3, ma4, ma5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, ar2, ar4, NA, NA, ma2, ma4, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah NA, ar3, NA, NA, ma3, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, ar2, ar3, ar4, ar5, ar6, ma1, ma2, ma3, ma4, ma5, ma6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar3, ma3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter yang tidak signifikan adalah ar1, ar2, ma1, ma2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA, ar2, ar3, NA, NA, NA, ma2, ma3, NA, NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar1, NA, NA, NA, NA, ar6, ma1, NA, NA, NA, NA, ma6</t>
   </si>
 </sst>
 </file>
@@ -534,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3647.83639180845</v>
+        <v>4015.7045439462</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -548,24 +659,24 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3651.82041730213</v>
+        <v>4018.90208228762</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
-        <v>3653.3901436831</v>
+        <v>4018.90227326563</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -573,30 +684,30 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B5" t="n">
-        <v>3644.95353026016</v>
+        <v>4022.90206873842</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>3647.01748345225</v>
+        <v>4017.49633000669</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -604,13 +715,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>3646.51365118947</v>
+        <v>4016.20562355237</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3647.83639180845</v>
+        <v>3619.02568496021</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -660,27 +771,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3651.82041730213</v>
+        <v>3620.64150830044</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B4" t="n">
-        <v>3653.3901436831</v>
+        <v>3622.47359243082</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +799,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>3644.95353026016</v>
+        <v>3626.33110664367</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -702,13 +813,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>3647.01748345225</v>
+        <v>3624.50063217535</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -716,13 +827,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>3646.51365118947</v>
+        <v>3626.31826027754</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +869,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3647.83639180845</v>
+        <v>4989.5511455748</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -772,69 +883,69 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3651.82041730213</v>
+        <v>4993.43928372623</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B4" t="n">
-        <v>3653.3901436831</v>
+        <v>4997.4375303302</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
-        <v>3644.95353026016</v>
+        <v>4994.71950570908</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B6" t="n">
-        <v>3647.01748345225</v>
+        <v>5002.79690814812</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n">
-        <v>3646.51365118947</v>
+        <v>5001.35693957171</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3647.83639180845</v>
+        <v>4582.67091613448</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -884,7 +995,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3651.82041730213</v>
+        <v>4586.6474263278</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -898,13 +1009,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>3653.3901436831</v>
+        <v>4587.36576084696</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -912,10 +1023,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>3644.95353026016</v>
+        <v>4581.60111526789</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -926,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>3647.01748345225</v>
+        <v>4583.60930234275</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -940,13 +1051,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>3646.51365118947</v>
+        <v>4584.24954662262</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3647.83639180845</v>
+        <v>6187.37121076915</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -996,27 +1107,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3651.82041730213</v>
+        <v>6191.36915208937</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B4" t="n">
-        <v>3653.3901436831</v>
+        <v>6187.87982338467</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1024,10 +1135,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>3644.95353026016</v>
+        <v>6175.81793118252</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1038,13 +1149,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>3647.01748345225</v>
+        <v>6178.20567175888</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1052,10 +1163,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>3646.51365118947</v>
+        <v>6165.15459966274</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1094,13 +1205,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3647.83639180845</v>
+        <v>5071.50030265783</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -1108,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3651.82041730213</v>
+        <v>5075.46375622732</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1119,16 +1230,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B4" t="n">
-        <v>3653.3901436831</v>
+        <v>5074.47657918204</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1136,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>3644.95353026016</v>
+        <v>5063.52958320186</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1150,13 +1261,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>3647.01748345225</v>
+        <v>5066.35011666998</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -1164,10 +1275,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>3646.51365118947</v>
+        <v>5070.90405094463</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
